--- a/archivos/plantilla.xlsx
+++ b/archivos/plantilla.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DPiloto\cotizaciones\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9FD50-A5BE-42E7-ACEE-B669A4524F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FBE06B-E1F7-4E34-B46D-CDB902A7B8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="- AYUDA - " sheetId="4" r:id="rId1"/>
-    <sheet name="Formato Cotizador" sheetId="1" r:id="rId2"/>
+    <sheet name="Formato Cotizador" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="Comprobantes">'[1]Tabla de Comprobantes'!$A$3:$A$65</definedName>
     <definedName name="PC">'[1]Tabla de Comprobantes'!$E$3:$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Formato Cotizador'!$A$2:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato Cotizador'!$A$2:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -71,9 +70,6 @@
     <t>Dirección:</t>
   </si>
   <si>
-    <t>CUIT-NIF:</t>
-  </si>
-  <si>
     <t>Teléfono:</t>
   </si>
   <si>
@@ -104,13 +100,13 @@
     <t>VÁLIDO HASTA</t>
   </si>
   <si>
-    <t>Ayuda</t>
-  </si>
-  <si>
     <t>Ingeniería Integral y Servicios</t>
   </si>
   <si>
     <t>Girasol 13 fraccionamiento Villas de Imaq</t>
+  </si>
+  <si>
+    <t>Empresa:</t>
   </si>
 </sst>
 </file>
@@ -124,7 +120,7 @@
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -217,14 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -257,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +260,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1A5AE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDB5E5E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,7 +528,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -677,19 +659,37 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -719,6 +719,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -727,56 +735,21 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -806,753 +779,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>256540</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447040</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC7983D-1597-4126-8701-AA512B9ED52B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="256540" y="1987550"/>
-          <a:ext cx="8045450" cy="3403600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>La plantilla</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Cotizador es un formato de Excel que le permite realizar una cotización de sus productos o servicios con los datos de su empresa y las del cliente</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Para usarla,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> sigue estos pasos:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Complete los datos de su empresa desde la fila 4 a la 8.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Complete los datos del cliente al cual le hace la cotización desde la fila 11 a la 15.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1600" b="1" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1600" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1600" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Registre los productos o servicios por el cual se pidió presupuesto desde la fila 18.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1600" b="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1600" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1600" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>. Complete el % de IVA en la celda G32.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1600" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>421640</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1177290</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2785ECFE-1CD3-45F1-AD0F-85A2905592FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10523220" y="116840"/>
-          <a:ext cx="1975485" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="DCF8F0"/>
-              </a:solidFill>
-              <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="77"/>
-              <a:ea typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
-              <a:cs typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
-            </a:rPr>
-            <a:t>PlanillaExcel.com</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>617204</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1138209</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2020</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Grupo 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DA203B-EDA7-9729-E541-0FB6D817A8F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8481044" y="1062990"/>
-          <a:ext cx="4315765" cy="4730230"/>
-          <a:chOff x="8717264" y="1217930"/>
-          <a:chExt cx="4350690" cy="4704195"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="TextBox 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E27C0FE-81DD-4C51-95AD-0D17F18F1DDE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8717280" y="1217930"/>
-            <a:ext cx="4350674" cy="4704195"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FBFBFB"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="274320" tIns="274320" rIns="274320" bIns="274320" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Más ayuda</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Si quieres saber más sobre cómo usar esta plantilla,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> o adaptarla, extenderla o corregir algún error, sigue este link:</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Otras plantillas</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Si esta plantilla</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> no es lo que necesitas, es posible que tengamos otra que se ajuste mejor. Aquí puedes acceder a muchas otras más:</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 8">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14A7D9E-7883-4FBC-B5A5-6EFEF7EC7B60}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8717264" y="2670150"/>
-            <a:ext cx="4345657" cy="424892"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="274320" tIns="0" rIns="274320" bIns="0" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="12A779"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>www.planillaexcel.com/ayuda/plantillas</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-AR" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="12A779"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 9">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D647DDE-4CBB-445F-AB06-551B2470CFB8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8722318" y="4930302"/>
-            <a:ext cx="4343117" cy="380488"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="274320" tIns="0" rIns="274320" bIns="0" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="12A779"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>www.planillaexcel.com/plantillas</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>35732</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374A3D66-6807-4BAB-82E6-6D9D8C055357}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419100" y="123825"/>
-          <a:ext cx="4095115" cy="731057"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Formato Cotizador </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1830,65 +1056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4" style="43" customWidth="1"/>
-    <col min="2" max="11" width="18.44140625" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" s="45" customFormat="1" ht="54.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="2:11" s="45" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-    </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B1:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" topLeftCell="A12" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,19 +1083,19 @@
     <row r="1" spans="2:9" s="14" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="B3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
-        <v>20</v>
+      <c r="B4" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -1929,14 +1104,14 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
-        <v>21</v>
+      <c r="B5" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="24"/>
-      <c r="G5" s="72" t="s">
-        <v>16</v>
+      <c r="G5" s="49" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="27">
         <v>321</v>
@@ -1944,36 +1119,36 @@
       <c r="I5" s="26"/>
     </row>
     <row r="6" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
-        <v>12</v>
+      <c r="B6" s="44" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="25"/>
-      <c r="G6" s="72" t="s">
-        <v>17</v>
+      <c r="G6" s="49" t="s">
+        <v>16</v>
       </c>
       <c r="H6" s="33">
         <v>44645</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64">
+      <c r="B7" s="66">
         <v>8999269262</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="72" t="s">
-        <v>18</v>
+      <c r="G7" s="49" t="s">
+        <v>17</v>
       </c>
       <c r="H7" s="34">
         <v>44675</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62" t="s">
-        <v>13</v>
+      <c r="B8" s="43" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -1987,102 +1162,102 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
+      <c r="B10" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="65" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-    </row>
-    <row r="15" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="2:9" s="3" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="H17" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="40"/>
       <c r="G18" s="37"/>
       <c r="H18" s="12" t="str">
@@ -2091,10 +1266,10 @@
       </c>
     </row>
     <row r="19" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="41"/>
       <c r="G19" s="38"/>
       <c r="H19" s="10" t="str">
@@ -2103,10 +1278,10 @@
       </c>
     </row>
     <row r="20" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="41"/>
       <c r="G20" s="38"/>
       <c r="H20" s="10" t="str">
@@ -2115,10 +1290,10 @@
       </c>
     </row>
     <row r="21" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="41"/>
       <c r="G21" s="38"/>
       <c r="H21" s="10" t="str">
@@ -2127,10 +1302,10 @@
       </c>
     </row>
     <row r="22" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="41"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10" t="str">
@@ -2139,10 +1314,10 @@
       </c>
     </row>
     <row r="23" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="41"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10" t="str">
@@ -2151,10 +1326,10 @@
       </c>
     </row>
     <row r="24" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="41"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10" t="str">
@@ -2163,10 +1338,10 @@
       </c>
     </row>
     <row r="25" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="41"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10" t="str">
@@ -2175,10 +1350,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="41"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10" t="str">
@@ -2187,10 +1362,10 @@
       </c>
     </row>
     <row r="27" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="41"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10" t="str">
@@ -2199,10 +1374,10 @@
       </c>
     </row>
     <row r="28" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="41"/>
       <c r="G28" s="38"/>
       <c r="H28" s="10" t="str">
@@ -2211,10 +1386,10 @@
       </c>
     </row>
     <row r="29" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="42"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11" t="str">
@@ -2223,10 +1398,10 @@
       </c>
     </row>
     <row r="30" spans="2:8" s="3" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="23" t="str">
@@ -2257,37 +1432,37 @@
     </row>
     <row r="33" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="71">
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="48">
         <f>H31+H32</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" s="3" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
+      <c r="B35" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="55"/>
     </row>
     <row r="36" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16"/>
